--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshit Sathyakumar\Desktop\PR python project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0F8144-B460-401B-9773-4AD79EE662BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,247 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="78">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Chain</t>
+  </si>
+  <si>
+    <t>UniProt</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Organism</t>
+  </si>
+  <si>
+    <t>Repeat type</t>
+  </si>
+  <si>
+    <t>Repeat annotation</t>
+  </si>
+  <si>
+    <t>Copies</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>3TWQ</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Q9H2K2</t>
+  </si>
+  <si>
+    <t>Poly [ADP-ribose] polymerase tankyrase-2 {ECO:0000305}</t>
+  </si>
+  <si>
+    <t>Homo sapiens (Human)</t>
+  </si>
+  <si>
+    <t>ANK</t>
+  </si>
+  <si>
+    <t>524-556,557-589,590-622,</t>
+  </si>
+  <si>
+    <t>3Q9N</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1-33,34-65,66-98,99-131,</t>
+  </si>
+  <si>
+    <t>3Q9U</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>3TWR</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>5VHO</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>O75832</t>
+  </si>
+  <si>
+    <t>26S proteasome non-ATPase regulatory subunit 10</t>
+  </si>
+  <si>
+    <t>39-71,72-104,105-136,137-169,170-202,</t>
+  </si>
+  <si>
+    <t>5VHP</t>
+  </si>
+  <si>
+    <t>5-37,39-71,72-104,105-136,137-169,170-202,</t>
+  </si>
+  <si>
+    <t>5Z2N</t>
+  </si>
+  <si>
+    <t>Q91XL9</t>
+  </si>
+  <si>
+    <t>Oxysterol-binding protein-related protein 1</t>
+  </si>
+  <si>
+    <t>Mus musculus (Mouse)</t>
+  </si>
+  <si>
+    <t>4-36,46-78,79-111,</t>
+  </si>
+  <si>
+    <t>3AJI</t>
+  </si>
+  <si>
+    <t>Q9Z2X2</t>
+  </si>
+  <si>
+    <t>5-37,39-71,72-105,106-137,138-169,170-202,</t>
+  </si>
+  <si>
+    <t>3D9H</t>
+  </si>
+  <si>
+    <t>Q96DX5</t>
+  </si>
+  <si>
+    <t>Ankyrin repeat and SOCS box protein 9</t>
+  </si>
+  <si>
+    <t>35-67,68-100,101-132,133-164,165-197,</t>
+  </si>
+  <si>
+    <t>3EHQ</t>
+  </si>
+  <si>
+    <t>Q92882</t>
+  </si>
+  <si>
+    <t>Osteoclast-stimulating factor 1</t>
+  </si>
+  <si>
+    <t>74-104,105-138,139-170,</t>
+  </si>
+  <si>
+    <t>3EHR</t>
+  </si>
+  <si>
+    <t>74-104,105-137,138-170,</t>
+  </si>
+  <si>
+    <t>3IXE</t>
+  </si>
+  <si>
+    <t>Q13418</t>
+  </si>
+  <si>
+    <t>Integrin-linked protein kinase</t>
+  </si>
+  <si>
+    <t>33-65,66-98,99-130,131-162,</t>
+  </si>
+  <si>
+    <t>3TWV</t>
+  </si>
+  <si>
+    <t>491-523,525-557,558-589,590-622,</t>
+  </si>
+  <si>
+    <t>3TWW</t>
+  </si>
+  <si>
+    <t>3UTM</t>
+  </si>
+  <si>
+    <t>Q6PFX9</t>
+  </si>
+  <si>
+    <t>Poly [ADP-ribose] polymerase tankyrase-1 {ECO:0000305}</t>
+  </si>
+  <si>
+    <t>328-360,361-393,394-426,427-458,549-581,582-614,</t>
+  </si>
+  <si>
+    <t>3V31</t>
+  </si>
+  <si>
+    <t>Q9H9E1</t>
+  </si>
+  <si>
+    <t>Ankyrin repeat family A protein 2</t>
+  </si>
+  <si>
+    <t>181-213,214-246,247-278,279-311,</t>
+  </si>
+  <si>
+    <t>4B93</t>
+  </si>
+  <si>
+    <t>Q96NW4</t>
+  </si>
+  <si>
+    <t>Ankyrin repeat domain-containing protein 27</t>
+  </si>
+  <si>
+    <t>743-775,776-807,808-840,841-873,</t>
+  </si>
+  <si>
+    <t>4BSZ</t>
+  </si>
+  <si>
+    <t>P46683</t>
+  </si>
+  <si>
+    <t>Ankyrin repeat-containing protein YAR1</t>
+  </si>
+  <si>
+    <t>Saccharomyces cerevisiae (strain ATCC 204508 / S288c) (Baker's yeast)</t>
+  </si>
+  <si>
+    <t>49-78,91-123,125-156,</t>
+  </si>
+  <si>
+    <t>4CYM</t>
+  </si>
+  <si>
+    <t>462-494,495-527,528-559,563-595,</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>4CZ2</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +575,683 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>0.93</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>